--- a/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
+++ b/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$73</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="451">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:20:15+08:00</t>
+    <t>2024-10-22T01:35:37+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -416,13 +416,13 @@
 </t>
   </si>
   <si>
-    <t>內嵌的（contained）、行內的Resources</t>
-  </si>
-  <si>
-    <t>這些resource內嵌（contains）的resource不會另外存於任何FHIR伺服器，意即它們無法在任何FHIR伺服器中被找到，也無法有自己獨立的資料異動／交易（transaction）範圍。</t>
-  </si>
-  <si>
-    <t>當內容可以從任何FHIR伺服器找到時，不應該以內嵌（contained）resource的方式呈現，因為一旦失去識別，再次恢復它是非常困難的（並且取決於情境）。內嵌（contained）的resource可在它們的meta資料項目中表述profiles和tag，但不應該有安全標號（security labels）。</t>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -432,19 +432,23 @@
   </si>
   <si>
     <t>Condition.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>擴充的資料項目</t>
-  </si>
-  <si>
-    <t>可用於表示不屬於此resource基本定義的額外資訊。為了擴充的使用安全和可管理，對擴充的定義和使用有一套嚴格的管理。儘管任何實作者都可以定義一個擴充，但作為擴充定義的一部分，**必須（SHALL）** 滿足一系列要求。</t>
-  </si>
-  <si>
-    <t>任何應用程式、專案或標準使用擴充時，都不應該帶有任何負面的聯想。使用擴充是允許FHIR規範為每個人保留一個核心的簡易性。</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -457,14 +461,14 @@
     <t>Condition.modifierExtension</t>
   </si>
   <si>
-    <t>此擴充的資料項目可能會完全修正或改變其他資料項目的意涵，需特別留意。</t>
-  </si>
-  <si>
-    <t>可以用來表示不屬於此resource的基本定義的額外資訊，並修改包含它所內嵌（contained）的資料項目的理解和/或對包含資料項目之後續使用的理解。通常修飾用的資料項目提供否定或限定的資訊。為了使擴充的使用安全和可管理，對擴充的定義和使用有一套嚴格的管理。雖然任何實作者都可以定義一個擴充，但在定義擴充時 **必須（SHALL）** 滿足一組要求。處理resource的應用程式需要檢查修飾用的擴充資料項目。  
-修飾用的擴充資料項目 **必須沒有（SHALL NOT）** 改變resource或DomainResource上任何資料項目的含義（包括不能改變modifierExtension本身的含義）。</t>
-  </si>
-  <si>
-    <t>修飾用的資料項目擴充允許將不能安全地忽略的擴充，與絕大多數可以安全地忽略的擴充明確區分開來。這樣做有助於促進可互操作性，因為無需禁止實作者使用擴充，想要瞭解更多資訊，請參見[修飾用的資料項目擴充之定義]（http://hl7.org/fhir/R4/extensibility.html#modifierExtension）。</t>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -628,6 +632,9 @@
     <t>Condition.code.extension</t>
   </si>
   <si>
+    <t>擴充的資料項目</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
@@ -803,6 +810,27 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
+    <t>Condition.code.coding:icd10-cm-2023</t>
+  </si>
+  <si>
+    <t>icd10-cm-2023</t>
+  </si>
+  <si>
+    <t>由專門術語系統（terminology system）定義的代碼</t>
+  </si>
+  <si>
+    <t>由專門術語系統（terminology system）所定義之代碼的參照</t>
+  </si>
+  <si>
+    <t>代碼可以在列舉清單（enumerations）或代碼清單（code lists）中非常隨意地定義，直至有非常正式的定義，例如：SNOMED CT—更多資訊見HL7 v3核心原則（Core Principles ）。編碼的排序是未定義的因而 **必須沒有（SHALL NOT）** 被用來推斷意義。一般來說，最多只有一個編碼值（coding values）會被標記為UserSelected = true。</t>
+  </si>
+  <si>
+    <t>允許代碼系統中的替代編碼，以及翻譯到其他編碼系統。</t>
+  </si>
+  <si>
+    <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/icd-10-cm-2023-tw</t>
+  </si>
+  <si>
     <t>Condition.code.coding:icd10-cm-2021</t>
   </si>
   <si>
@@ -834,18 +862,6 @@
   </si>
   <si>
     <t>icd9-cm-2001</t>
-  </si>
-  <si>
-    <t>由專門術語系統（terminology system）定義的代碼</t>
-  </si>
-  <si>
-    <t>由專門術語系統（terminology system）所定義之代碼的參照</t>
-  </si>
-  <si>
-    <t>代碼可以在列舉清單（enumerations）或代碼清單（code lists）中非常隨意地定義，直至有非常正式的定義，例如：SNOMED CT—更多資訊見HL7 v3核心原則（Core Principles ）。編碼的排序是未定義的因而 **必須沒有（SHALL NOT）** 被用來推斷意義。一般來說，最多只有一個編碼值（coding values）會被標記為UserSelected = true。</t>
-  </si>
-  <si>
-    <t>允許代碼系統中的替代編碼，以及翻譯到其他編碼系統。</t>
   </si>
   <si>
     <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/icd-9-cm-2001-tw</t>
@@ -964,17 +980,7 @@
     <t>Condition.subject.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Condition.subject.reference</t>
@@ -1271,9 +1277,6 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1731,7 +1734,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO72"/>
+  <dimension ref="A1:AO73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2731,7 +2734,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2750,16 +2753,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2809,7 +2812,7 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2821,7 +2824,7 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
@@ -2833,7 +2836,7 @@
         <v>20</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>20</v>
@@ -2841,14 +2844,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2867,19 +2870,19 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -2928,7 +2931,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2940,7 +2943,7 @@
         <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
@@ -2952,7 +2955,7 @@
         <v>20</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>20</v>
@@ -2960,10 +2963,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2986,19 +2989,19 @@
         <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -3047,7 +3050,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3062,7 +3065,7 @@
         <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>20</v>
@@ -3071,18 +3074,18 @@
         <v>20</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3105,16 +3108,16 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3140,13 +3143,13 @@
         <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>20</v>
@@ -3164,7 +3167,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3173,7 +3176,7 @@
         <v>89</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>101</v>
@@ -3185,10 +3188,10 @@
         <v>20</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>20</v>
@@ -3196,10 +3199,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3222,16 +3225,16 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3257,13 +3260,13 @@
         <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>20</v>
@@ -3281,7 +3284,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3290,7 +3293,7 @@
         <v>89</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>101</v>
@@ -3302,10 +3305,10 @@
         <v>20</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>20</v>
@@ -3313,10 +3316,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3339,16 +3342,16 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3374,13 +3377,13 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -3398,7 +3401,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3407,7 +3410,7 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>101</v>
@@ -3419,10 +3422,10 @@
         <v>20</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>20</v>
@@ -3430,10 +3433,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3456,16 +3459,16 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3491,11 +3494,11 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -3513,7 +3516,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3522,7 +3525,7 @@
         <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>101</v>
@@ -3534,10 +3537,10 @@
         <v>20</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>20</v>
@@ -3545,14 +3548,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3571,19 +3574,19 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3608,11 +3611,11 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -3630,7 +3633,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3639,7 +3642,7 @@
         <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>101</v>
@@ -3651,10 +3654,10 @@
         <v>20</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>20</v>
@@ -3662,10 +3665,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3688,13 +3691,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3745,7 +3748,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3769,7 +3772,7 @@
         <v>20</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>20</v>
@@ -3777,10 +3780,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3803,13 +3806,13 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3848,19 +3851,19 @@
         <v>20</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3872,7 +3875,7 @@
         <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>20</v>
@@ -3892,10 +3895,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3918,19 +3921,19 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -3967,17 +3970,17 @@
         <v>20</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3986,7 +3989,7 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>101</v>
@@ -3998,10 +4001,10 @@
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>20</v>
@@ -4009,10 +4012,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4035,13 +4038,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4092,7 +4095,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4116,7 +4119,7 @@
         <v>20</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>20</v>
@@ -4124,10 +4127,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4150,16 +4153,16 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4197,19 +4200,19 @@
         <v>20</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4221,7 +4224,7 @@
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>20</v>
@@ -4241,10 +4244,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4270,16 +4273,16 @@
         <v>103</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4289,7 +4292,7 @@
         <v>20</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>20</v>
@@ -4328,7 +4331,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4349,10 +4352,10 @@
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>20</v>
@@ -4360,10 +4363,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4386,16 +4389,16 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4445,7 +4448,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4466,10 +4469,10 @@
         <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>20</v>
@@ -4477,10 +4480,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4506,14 +4509,14 @@
         <v>109</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4562,7 +4565,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4583,10 +4586,10 @@
         <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>20</v>
@@ -4594,10 +4597,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4620,17 +4623,17 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4679,7 +4682,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4700,10 +4703,10 @@
         <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>20</v>
@@ -4711,10 +4714,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4737,19 +4740,19 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4798,7 +4801,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4819,10 +4822,10 @@
         <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>20</v>
@@ -4830,13 +4833,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>20</v>
@@ -4858,19 +4861,19 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4895,13 +4898,11 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -4919,7 +4920,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4928,7 +4929,7 @@
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>101</v>
@@ -4940,10 +4941,10 @@
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>20</v>
@@ -4951,13 +4952,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>20</v>
@@ -4979,19 +4980,19 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -5016,13 +5017,13 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -5040,7 +5041,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5049,7 +5050,7 @@
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>101</v>
@@ -5061,10 +5062,10 @@
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>20</v>
@@ -5072,13 +5073,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>20</v>
@@ -5100,19 +5101,19 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5137,11 +5138,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5159,7 +5162,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5168,7 +5171,7 @@
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>101</v>
@@ -5180,10 +5183,10 @@
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>20</v>
@@ -5191,13 +5194,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>20</v>
@@ -5219,19 +5222,19 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5256,11 +5259,9 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="Y30" t="s" s="2">
         <v>161</v>
       </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
         <v>274</v>
       </c>
@@ -5280,7 +5281,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5289,7 +5290,7 @@
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>101</v>
@@ -5301,10 +5302,10 @@
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
@@ -5315,7 +5316,7 @@
         <v>275</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>276</v>
@@ -5340,19 +5341,19 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>204</v>
+        <v>278</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5377,13 +5378,13 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
@@ -5401,7 +5402,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5410,7 +5411,7 @@
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>101</v>
@@ -5422,10 +5423,10 @@
         <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
@@ -5433,12 +5434,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5456,22 +5459,22 @@
         <v>20</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>281</v>
+        <v>206</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>282</v>
+        <v>207</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>283</v>
+        <v>208</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5496,13 +5499,13 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -5520,16 +5523,16 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>284</v>
+        <v>210</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>101</v>
@@ -5541,10 +5544,10 @@
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>285</v>
+        <v>211</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>286</v>
+        <v>212</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
@@ -5552,10 +5555,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5566,7 +5569,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>90</v>
@@ -5575,21 +5578,23 @@
         <v>20</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O33" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
@@ -5613,13 +5618,13 @@
         <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>291</v>
+        <v>20</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>292</v>
+        <v>20</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>20</v>
@@ -5637,16 +5642,16 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>101</v>
@@ -5658,10 +5663,10 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>164</v>
+        <v>290</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>165</v>
+        <v>291</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -5669,21 +5674,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>294</v>
+        <v>20</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>90</v>
@@ -5692,21 +5697,21 @@
         <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>298</v>
-      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>20</v>
       </c>
@@ -5730,13 +5735,13 @@
         <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>20</v>
+        <v>296</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -5754,74 +5759,76 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>300</v>
+        <v>165</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>301</v>
+        <v>166</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>302</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>191</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
@@ -5869,10 +5876,10 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>194</v>
+        <v>298</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>89</v>
@@ -5881,41 +5888,41 @@
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>20</v>
+        <v>305</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>195</v>
+        <v>306</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>20</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -5927,17 +5934,15 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N36" t="s" s="2">
         <v>310</v>
       </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -5974,31 +5979,31 @@
         <v>20</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
@@ -6010,7 +6015,7 @@
         <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
@@ -6025,35 +6030,35 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>313</v>
-      </c>
       <c r="N37" t="s" s="2">
-        <v>314</v>
+        <v>139</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6091,31 +6096,31 @@
         <v>20</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>316</v>
+        <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>20</v>
@@ -6127,7 +6132,7 @@
         <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -6135,10 +6140,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6146,13 +6151,13 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>20</v>
@@ -6161,16 +6166,16 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6196,13 +6201,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>321</v>
+        <v>20</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>322</v>
+        <v>20</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -6220,7 +6225,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6229,7 +6234,7 @@
         <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>20</v>
+        <v>318</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>101</v>
@@ -6252,10 +6257,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6278,16 +6283,16 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6313,13 +6318,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>20</v>
+        <v>323</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6337,7 +6342,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6361,7 +6366,7 @@
         <v>20</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>329</v>
+        <v>133</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -6369,10 +6374,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6395,16 +6400,16 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6454,7 +6459,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6478,7 +6483,7 @@
         <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>133</v>
+        <v>331</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6486,10 +6491,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6512,16 +6517,16 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>336</v>
+        <v>192</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6571,7 +6576,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6586,27 +6591,27 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>340</v>
+        <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>341</v>
+        <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>342</v>
+        <v>133</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>343</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6620,7 +6625,7 @@
         <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>20</v>
@@ -6629,16 +6634,16 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6688,7 +6693,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6703,27 +6708,27 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6743,19 +6748,19 @@
         <v>20</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6805,7 +6810,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6814,33 +6819,33 @@
         <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>357</v>
+        <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>20</v>
+        <v>351</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6854,24 +6859,26 @@
         <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -6920,7 +6927,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6929,7 +6936,7 @@
         <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>20</v>
+        <v>359</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>101</v>
@@ -6941,21 +6948,21 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>364</v>
+        <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6963,13 +6970,13 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>20</v>
@@ -6978,13 +6985,13 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7035,7 +7042,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7056,21 +7063,21 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>20</v>
+        <v>366</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7084,22 +7091,22 @@
         <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>191</v>
+        <v>370</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>304</v>
+        <v>371</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>305</v>
+        <v>372</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7150,7 +7157,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>194</v>
+        <v>369</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7162,7 +7169,7 @@
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
@@ -7174,29 +7181,29 @@
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>195</v>
+        <v>373</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>20</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -7208,17 +7215,15 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N47" t="s" s="2">
         <v>310</v>
       </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7255,31 +7260,31 @@
         <v>20</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
@@ -7291,7 +7296,7 @@
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -7299,42 +7304,42 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>376</v>
+        <v>137</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>314</v>
+        <v>139</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7372,31 +7377,31 @@
         <v>20</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>316</v>
+        <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
@@ -7408,7 +7413,7 @@
         <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
@@ -7427,13 +7432,13 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>20</v>
@@ -7442,16 +7447,16 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>318</v>
+        <v>378</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7477,13 +7482,13 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>321</v>
+        <v>20</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>322</v>
+        <v>20</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7501,7 +7506,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7510,7 +7515,7 @@
         <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>20</v>
+        <v>318</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>101</v>
@@ -7533,10 +7538,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7559,16 +7564,16 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7594,13 +7599,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>20</v>
+        <v>323</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7618,7 +7623,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7642,7 +7647,7 @@
         <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>329</v>
+        <v>133</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -7650,10 +7655,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7676,16 +7681,16 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7735,7 +7740,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7759,7 +7764,7 @@
         <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>133</v>
+        <v>331</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -7767,10 +7772,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7784,7 +7789,7 @@
         <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>20</v>
@@ -7793,15 +7798,17 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>368</v>
+        <v>192</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -7850,7 +7857,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>380</v>
+        <v>336</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7871,21 +7878,21 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>384</v>
+        <v>133</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>385</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7899,22 +7906,22 @@
         <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>191</v>
+        <v>370</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>304</v>
+        <v>383</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>305</v>
+        <v>384</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7965,7 +7972,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>194</v>
+        <v>382</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7977,7 +7984,7 @@
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
@@ -7986,32 +7993,32 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>20</v>
+        <v>385</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>195</v>
+        <v>386</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>20</v>
+        <v>387</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
@@ -8023,17 +8030,15 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N54" t="s" s="2">
         <v>310</v>
       </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8070,31 +8075,31 @@
         <v>20</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>20</v>
@@ -8106,7 +8111,7 @@
         <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8114,42 +8119,42 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>389</v>
+        <v>137</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>314</v>
+        <v>139</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8187,31 +8192,31 @@
         <v>20</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>316</v>
+        <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
@@ -8223,7 +8228,7 @@
         <v>20</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>
@@ -8242,13 +8247,13 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>20</v>
@@ -8257,16 +8262,16 @@
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>318</v>
+        <v>391</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8292,13 +8297,13 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>321</v>
+        <v>20</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>322</v>
+        <v>20</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>20</v>
@@ -8316,7 +8321,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8325,7 +8330,7 @@
         <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>20</v>
+        <v>318</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>101</v>
@@ -8348,10 +8353,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8374,16 +8379,16 @@
         <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8409,13 +8414,13 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>20</v>
+        <v>323</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -8433,7 +8438,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8457,7 +8462,7 @@
         <v>20</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>329</v>
+        <v>133</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>20</v>
@@ -8465,10 +8470,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8491,16 +8496,16 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8550,7 +8555,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8574,7 +8579,7 @@
         <v>20</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>133</v>
+        <v>331</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>20</v>
@@ -8582,10 +8587,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8596,7 +8601,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>20</v>
@@ -8605,18 +8610,20 @@
         <v>20</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>394</v>
+        <v>192</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>395</v>
+        <v>333</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -8665,19 +8672,19 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>397</v>
+        <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>20</v>
@@ -8689,7 +8696,7 @@
         <v>20</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>398</v>
+        <v>133</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>20</v>
@@ -8697,10 +8704,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8711,7 +8718,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>20</v>
@@ -8723,13 +8730,13 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>191</v>
+        <v>396</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>304</v>
+        <v>397</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>305</v>
+        <v>398</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8780,19 +8787,19 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>194</v>
+        <v>395</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>20</v>
+        <v>399</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>20</v>
@@ -8804,7 +8811,7 @@
         <v>20</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>195</v>
+        <v>400</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>20</v>
@@ -8812,21 +8819,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>20</v>
@@ -8838,17 +8845,15 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N61" t="s" s="2">
         <v>310</v>
       </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -8897,19 +8902,19 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>20</v>
@@ -8921,7 +8926,7 @@
         <v>20</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>20</v>
@@ -8929,14 +8934,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>402</v>
+        <v>135</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8949,26 +8954,24 @@
         <v>20</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>403</v>
+        <v>137</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>404</v>
+        <v>312</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>20</v>
       </c>
@@ -9016,7 +9019,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>406</v>
+        <v>202</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9028,7 +9031,7 @@
         <v>20</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>20</v>
@@ -9040,7 +9043,7 @@
         <v>20</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>20</v>
@@ -9048,44 +9051,46 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>20</v>
+        <v>404</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
       </c>
@@ -9109,13 +9114,13 @@
         <v>20</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>410</v>
+        <v>20</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>411</v>
+        <v>20</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>20</v>
@@ -9139,13 +9144,13 @@
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>20</v>
@@ -9154,10 +9159,10 @@
         <v>20</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>20</v>
@@ -9165,10 +9170,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9179,7 +9184,7 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>20</v>
@@ -9191,15 +9196,17 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>413</v>
+        <v>157</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9224,13 +9231,13 @@
         <v>20</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>20</v>
+        <v>411</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>20</v>
+        <v>412</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>20</v>
@@ -9248,16 +9255,16 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>416</v>
+        <v>164</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>101</v>
@@ -9269,10 +9276,10 @@
         <v>20</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>417</v>
+        <v>166</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>20</v>
@@ -9280,10 +9287,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9294,7 +9301,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>20</v>
@@ -9306,17 +9313,15 @@
         <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>156</v>
+        <v>414</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>20</v>
@@ -9341,13 +9346,13 @@
         <v>20</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>421</v>
+        <v>20</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>422</v>
+        <v>20</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>20</v>
@@ -9365,16 +9370,16 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>163</v>
+        <v>417</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>101</v>
@@ -9386,10 +9391,10 @@
         <v>20</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>165</v>
+        <v>418</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>20</v>
@@ -9397,10 +9402,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9411,7 +9416,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>20</v>
@@ -9423,16 +9428,16 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>394</v>
+        <v>157</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>426</v>
+        <v>188</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9458,13 +9463,13 @@
         <v>20</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>20</v>
+        <v>422</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>20</v>
+        <v>423</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>20</v>
@@ -9482,19 +9487,19 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>427</v>
+        <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>20</v>
@@ -9503,10 +9508,10 @@
         <v>20</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>428</v>
+        <v>166</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>20</v>
@@ -9514,10 +9519,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9528,7 +9533,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>20</v>
@@ -9540,15 +9545,17 @@
         <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>191</v>
+        <v>396</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>304</v>
+        <v>425</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>20</v>
@@ -9597,19 +9604,19 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>194</v>
+        <v>424</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>20</v>
+        <v>428</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>20</v>
@@ -9621,7 +9628,7 @@
         <v>20</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>195</v>
+        <v>429</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>20</v>
@@ -9636,14 +9643,14 @@
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>20</v>
@@ -9655,17 +9662,15 @@
         <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N68" t="s" s="2">
         <v>310</v>
       </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -9714,19 +9719,19 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>20</v>
@@ -9738,7 +9743,7 @@
         <v>20</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>20</v>
@@ -9753,7 +9758,7 @@
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>402</v>
+        <v>135</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9766,26 +9771,24 @@
         <v>20</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>403</v>
+        <v>137</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>404</v>
+        <v>312</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>20</v>
       </c>
@@ -9833,7 +9836,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>406</v>
+        <v>202</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9845,7 +9848,7 @@
         <v>20</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>20</v>
@@ -9857,7 +9860,7 @@
         <v>20</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>20</v>
@@ -9872,7 +9875,7 @@
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>20</v>
+        <v>404</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9885,24 +9888,26 @@
         <v>20</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>20</v>
       </c>
@@ -9926,13 +9931,13 @@
         <v>20</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>435</v>
+        <v>20</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>436</v>
+        <v>20</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>20</v>
@@ -9950,7 +9955,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9959,10 +9964,10 @@
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>20</v>
@@ -9971,10 +9976,10 @@
         <v>20</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>20</v>
@@ -9982,10 +9987,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10005,18 +10010,20 @@
         <v>20</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>438</v>
+        <v>157</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>20</v>
@@ -10041,13 +10048,13 @@
         <v>20</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>20</v>
+        <v>436</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>20</v>
+        <v>437</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>20</v>
@@ -10065,7 +10072,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10074,7 +10081,7 @@
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>441</v>
+        <v>164</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>101</v>
@@ -10086,21 +10093,21 @@
         <v>20</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>417</v>
+        <v>166</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>442</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10114,22 +10121,22 @@
         <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J72" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="I72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="K72" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10180,7 +10187,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10189,29 +10196,144 @@
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>20</v>
+        <v>442</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AL72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM72" t="s" s="2">
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK73" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AN72" t="s" s="2">
+      <c r="AL73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AO72" t="s" s="2">
+      <c r="AN73" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AO73" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO72">
+  <autoFilter ref="A1:AO73">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10221,7 +10343,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI71">
+  <conditionalFormatting sqref="A2:AI72">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
+++ b/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>TWLTC Condition Disability Type</t>
+    <t>長期照顧－身心障礙類型</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T01:35:37+08:00</t>
+    <t>2024-10-23T00:37:08+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>長照機構住民的身心障礙類型資料</t>
+    <t>此 Profile 說明本 IG 如何進一步定義 FHIR 的 Condition Resource，以呈現長照機構住民的身心障礙類型。</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
+++ b/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T00:37:08+08:00</t>
+    <t>2024-10-23T02:33:36+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
+++ b/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T02:33:36+08:00</t>
+    <t>2025-07-28T13:16:22+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1743,17 +1743,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.65234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.88671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.5703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.4296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.5625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="248.08984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1762,27 +1762,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="77.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.5625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.65625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.33203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="56.63671875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="222.1015625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="49.63671875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="191.0625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
+++ b/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:22+08:00</t>
+    <t>2025-07-28T13:45:25+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
+++ b/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:45:25+08:00</t>
+    <t>2025-07-28T14:53:50+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
+++ b/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:53:50+08:00</t>
+    <t>2025-08-20T12:47:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1743,17 +1743,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.4296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.5625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.99609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="248.08984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="235.96484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1762,27 +1762,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.65625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.33203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.5390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.20703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="49.63671875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="191.0625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="48.5546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="190.4140625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
+++ b/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T12:47:30+08:00</t>
+    <t>2025-08-23T17:17:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
+++ b/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-23T17:17:30+08:00</t>
+    <t>2025-09-09T02:59:45+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
+++ b/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T02:59:45+08:00</t>
+    <t>2025-09-09T04:22:03+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
+++ b/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T04:22:03+08:00</t>
+    <t>2025-09-15T15:24:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1018,7 +1018,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>

--- a/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
+++ b/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="452">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:24:30+08:00</t>
+    <t>2025-09-26T02:27:53+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -708,6 +708,9 @@
   </si>
   <si>
     <t>需要明確說明符號定義的來源</t>
+  </si>
+  <si>
+    <t>http://ltc-ig.fhir.tw/CodeSystem/ConditionDisabilityTypeCS-TWLTC</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -4292,7 +4295,7 @@
         <v>20</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>20</v>
@@ -4331,7 +4334,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4352,10 +4355,10 @@
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>20</v>
@@ -4363,10 +4366,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4392,13 +4395,13 @@
         <v>192</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4448,7 +4451,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4469,10 +4472,10 @@
         <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>20</v>
@@ -4480,10 +4483,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4509,14 +4512,14 @@
         <v>109</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4565,7 +4568,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4586,10 +4589,10 @@
         <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>20</v>
@@ -4597,10 +4600,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4626,14 +4629,14 @@
         <v>192</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4682,7 +4685,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4703,10 +4706,10 @@
         <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>20</v>
@@ -4714,10 +4717,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4740,19 +4743,19 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4801,7 +4804,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4822,10 +4825,10 @@
         <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>20</v>
@@ -4833,13 +4836,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>203</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>20</v>
@@ -4864,16 +4867,16 @@
         <v>204</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4902,7 +4905,7 @@
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -4952,13 +4955,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>203</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>20</v>
@@ -4983,7 +4986,7 @@
         <v>204</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>206</v>
@@ -5020,10 +5023,10 @@
         <v>161</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -5073,13 +5076,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>203</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>20</v>
@@ -5104,7 +5107,7 @@
         <v>204</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>206</v>
@@ -5141,10 +5144,10 @@
         <v>161</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5194,13 +5197,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>203</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>20</v>
@@ -5225,16 +5228,16 @@
         <v>204</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5263,7 +5266,7 @@
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -5313,13 +5316,13 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>203</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>20</v>
@@ -5344,10 +5347,10 @@
         <v>204</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>207</v>
@@ -5384,7 +5387,7 @@
         <v>162</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
@@ -5434,13 +5437,13 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>203</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>20</v>
@@ -5465,7 +5468,7 @@
         <v>204</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>206</v>
@@ -5505,7 +5508,7 @@
         <v>162</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -5555,10 +5558,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5584,16 +5587,16 @@
         <v>192</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5642,7 +5645,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5663,10 +5666,10 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -5674,10 +5677,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5703,13 +5706,13 @@
         <v>157</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5738,10 +5741,10 @@
         <v>176</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -5759,7 +5762,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5791,14 +5794,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5817,17 +5820,17 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -5876,7 +5879,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>89</v>
@@ -5891,27 +5894,27 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5937,10 +5940,10 @@
         <v>192</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6023,10 +6026,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6055,7 +6058,7 @@
         <v>137</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>139</v>
@@ -6140,10 +6143,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6169,13 +6172,13 @@
         <v>192</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6225,7 +6228,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6234,7 +6237,7 @@
         <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>101</v>
@@ -6257,10 +6260,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6286,13 +6289,13 @@
         <v>103</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6321,10 +6324,10 @@
         <v>176</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6342,7 +6345,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6374,10 +6377,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6403,13 +6406,13 @@
         <v>148</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6459,7 +6462,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6483,7 +6486,7 @@
         <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6491,10 +6494,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6520,13 +6523,13 @@
         <v>192</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6576,7 +6579,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6608,10 +6611,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6634,16 +6637,16 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6693,7 +6696,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6708,27 +6711,27 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6751,16 +6754,16 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6810,7 +6813,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6825,27 +6828,27 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6868,16 +6871,16 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6927,7 +6930,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6936,7 +6939,7 @@
         <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>101</v>
@@ -6951,18 +6954,18 @@
         <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6985,13 +6988,13 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7042,7 +7045,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7063,21 +7066,21 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7100,13 +7103,13 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7157,7 +7160,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7181,18 +7184,18 @@
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7218,10 +7221,10 @@
         <v>192</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7304,10 +7307,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7336,7 +7339,7 @@
         <v>137</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>139</v>
@@ -7421,10 +7424,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7450,13 +7453,13 @@
         <v>192</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7506,7 +7509,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7515,7 +7518,7 @@
         <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>101</v>
@@ -7538,10 +7541,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7567,13 +7570,13 @@
         <v>103</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7602,10 +7605,10 @@
         <v>176</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7623,7 +7626,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7655,10 +7658,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7684,13 +7687,13 @@
         <v>148</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7740,7 +7743,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7764,7 +7767,7 @@
         <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -7772,10 +7775,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7801,13 +7804,13 @@
         <v>192</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7857,7 +7860,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7889,10 +7892,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7915,13 +7918,13 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7972,7 +7975,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7993,21 +7996,21 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8033,10 +8036,10 @@
         <v>192</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8119,10 +8122,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8151,7 +8154,7 @@
         <v>137</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>139</v>
@@ -8236,10 +8239,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8265,13 +8268,13 @@
         <v>192</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8321,7 +8324,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8330,7 +8333,7 @@
         <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>101</v>
@@ -8353,10 +8356,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8382,13 +8385,13 @@
         <v>103</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8417,10 +8420,10 @@
         <v>176</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -8438,7 +8441,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8470,10 +8473,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8499,13 +8502,13 @@
         <v>148</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8555,7 +8558,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8579,7 +8582,7 @@
         <v>20</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>20</v>
@@ -8587,10 +8590,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8616,13 +8619,13 @@
         <v>192</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8672,7 +8675,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8704,10 +8707,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8730,13 +8733,13 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8787,7 +8790,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8799,7 +8802,7 @@
         <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>20</v>
@@ -8811,7 +8814,7 @@
         <v>20</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>20</v>
@@ -8819,10 +8822,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8848,10 +8851,10 @@
         <v>192</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8934,10 +8937,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8966,7 +8969,7 @@
         <v>137</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>139</v>
@@ -9051,14 +9054,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9080,10 +9083,10 @@
         <v>136</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>139</v>
@@ -9138,7 +9141,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9170,10 +9173,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9199,10 +9202,10 @@
         <v>157</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>188</v>
@@ -9234,10 +9237,10 @@
         <v>176</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>20</v>
@@ -9255,7 +9258,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9287,10 +9290,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9313,13 +9316,13 @@
         <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9370,7 +9373,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9379,7 +9382,7 @@
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>101</v>
@@ -9394,7 +9397,7 @@
         <v>20</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>20</v>
@@ -9402,10 +9405,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9431,10 +9434,10 @@
         <v>157</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>188</v>
@@ -9466,10 +9469,10 @@
         <v>176</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>20</v>
@@ -9487,7 +9490,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9519,10 +9522,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9545,16 +9548,16 @@
         <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9604,7 +9607,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9616,7 +9619,7 @@
         <v>20</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>20</v>
@@ -9628,7 +9631,7 @@
         <v>20</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>20</v>
@@ -9636,10 +9639,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9665,10 +9668,10 @@
         <v>192</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9751,10 +9754,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9783,7 +9786,7 @@
         <v>137</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>139</v>
@@ -9868,14 +9871,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9897,10 +9900,10 @@
         <v>136</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>139</v>
@@ -9955,7 +9958,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9987,10 +9990,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10016,10 +10019,10 @@
         <v>157</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>188</v>
@@ -10051,10 +10054,10 @@
         <v>176</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>20</v>
@@ -10072,7 +10075,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10104,10 +10107,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10130,13 +10133,13 @@
         <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10187,7 +10190,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10196,7 +10199,7 @@
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>101</v>
@@ -10211,18 +10214,18 @@
         <v>20</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10245,13 +10248,13 @@
         <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10302,7 +10305,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10317,16 +10320,16 @@
         <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>20</v>

--- a/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
+++ b/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
+++ b/docs/StructureDefinition-LTCConditionDisabilityType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4292,10 +4292,10 @@
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>20</v>
